--- a/crusher-joe/checklist.xlsx
+++ b/crusher-joe/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/crusher-joe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DA3014-2E68-734B-91EC-7C181361F3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C59C7DC-FE95-0D4C-8925-46BF701649A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{65623694-94CC-0D49-B04F-F5AC579F0BBB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Scenarios for Crusher Joe Role Play Game</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7F6706-0EFC-3146-B414-1D3EDAEDBDF1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,9 +446,10 @@
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +465,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1983</v>
       </c>
@@ -475,8 +485,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -488,6 +501,9 @@
       </c>
       <c r="E3" t="s">
         <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
